--- a/phpdocx/template/burning.xlsx
+++ b/phpdocx/template/burning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Shareholding Pattern</t>
   </si>
@@ -48,21 +48,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Board Independence (SES Classification)</t>
-  </si>
-  <si>
-    <t>ID as per SES:</t>
-  </si>
-  <si>
-    <t>NID as per SES:</t>
-  </si>
-  <si>
-    <t>NID as per Company:</t>
-  </si>
-  <si>
-    <t>ID as per Company:</t>
-  </si>
-  <si>
     <t>Executive Compesation vs Shareholder's Value</t>
   </si>
   <si>
@@ -172,16 +157,53 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>NID</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Jun'10</t>
+  </si>
+  <si>
+    <t>Jun'11</t>
+  </si>
+  <si>
+    <t>Jun'12</t>
+  </si>
+  <si>
+    <t>Jun'13</t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>CSR as % of Net Profit</t>
+  </si>
+  <si>
+    <t>FY 12/13</t>
+  </si>
+  <si>
+    <t>FY 13/14</t>
+  </si>
+  <si>
+    <t>FY 14/15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -243,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +314,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -547,13 +575,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -569,8 +635,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,15 +714,21 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 4" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -952,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F485"/>
+  <dimension ref="B3:F518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E490" sqref="E490"/>
+    <sheetView tabSelected="1" topLeftCell="A484" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C493" sqref="C493:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -963,7 +1033,7 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
@@ -1030,408 +1100,602 @@
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:4">
       <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:4">
       <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="47"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="10"/>
+    <row r="27" spans="2:4">
+      <c r="B27" s="46"/>
+      <c r="C27" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>17</v>
+      <c r="B37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="14"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="14"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="14"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="15"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="14"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="15"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="16"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="17"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="39"/>
+      <c r="C59" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="40"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="43"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="40"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="43"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="40"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="43"/>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="41">
+        <v>6</v>
+      </c>
+      <c r="C72" s="41"/>
+      <c r="D72" s="43"/>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="41"/>
+      <c r="D73" s="43"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="41"/>
+      <c r="D74" s="43"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18" t="s">
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="41"/>
-      <c r="C59" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="42"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="45"/>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="42"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="45"/>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="B72" s="43">
-        <v>6</v>
-      </c>
-      <c r="C72" s="43"/>
-      <c r="D72" s="45"/>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="43"/>
-      <c r="D73" s="45"/>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" s="43"/>
-      <c r="D74" s="45"/>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="23"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
     </row>
     <row r="95" spans="2:5" ht="15" thickBot="1"/>
     <row r="96" spans="2:5">
-      <c r="B96" s="27"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="29"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="27"/>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="32"/>
+      <c r="B97" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="30"/>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="32"/>
+      <c r="B98" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="30"/>
     </row>
     <row r="99" spans="2:5" ht="15" thickBot="1">
-      <c r="B99" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="35"/>
+      <c r="B99" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="33"/>
     </row>
     <row r="108" spans="2:5" ht="15" thickBot="1"/>
     <row r="109" spans="2:5">
-      <c r="B109" s="27"/>
-      <c r="C109" s="28" t="s">
+      <c r="B109" s="25"/>
+      <c r="C109" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="28"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="30"/>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="28"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="30"/>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="28"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="30"/>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="28"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="30"/>
+    </row>
+    <row r="114" spans="2:5" ht="15" thickBot="1">
+      <c r="B114" s="28"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="30"/>
+    </row>
+    <row r="115" spans="2:5" ht="15" thickBot="1">
+      <c r="B115" s="31"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="33"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="C122" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="C123" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="28" t="s">
+      <c r="D123" s="34"/>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="C124" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E109" s="29" t="s">
+      <c r="D124" s="34"/>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="C125" s="29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" s="30"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="32"/>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111" s="30"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="32"/>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" s="30"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="32"/>
-    </row>
-    <row r="113" spans="2:5">
-      <c r="B113" s="30"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="32"/>
-    </row>
-    <row r="114" spans="2:5" ht="15" thickBot="1">
-      <c r="B114" s="30"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="32"/>
-    </row>
-    <row r="115" spans="2:5" ht="15" thickBot="1">
-      <c r="B115" s="33"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="35"/>
-    </row>
-    <row r="122" spans="2:5">
-      <c r="C122" s="31" t="s">
+      <c r="D125" s="34"/>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="C133" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D122" s="31" t="s">
+    </row>
+    <row r="134" spans="3:4">
+      <c r="C134" s="29"/>
+      <c r="D134" s="34"/>
+    </row>
+    <row r="135" spans="3:4">
+      <c r="C135" s="29"/>
+      <c r="D135" s="34"/>
+    </row>
+    <row r="136" spans="3:4">
+      <c r="C136" s="29"/>
+      <c r="D136" s="34"/>
+    </row>
+    <row r="137" spans="3:4">
+      <c r="C137" s="29"/>
+      <c r="D137" s="34"/>
+    </row>
+    <row r="138" spans="3:4">
+      <c r="C138" s="29"/>
+      <c r="D138" s="34"/>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="29"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="C123" s="31" t="s">
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D123" s="36"/>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="C124" s="31" t="s">
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D124" s="36"/>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="C125" s="31" t="s">
+      <c r="C156" s="29"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D125" s="36"/>
-    </row>
-    <row r="133" spans="3:4">
-      <c r="C133" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D133" s="31" t="s">
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
+    </row>
+    <row r="483" spans="2:6" ht="28">
+      <c r="B483" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C483" s="37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="134" spans="3:4">
-      <c r="C134" s="31"/>
-      <c r="D134" s="36"/>
-    </row>
-    <row r="135" spans="3:4">
-      <c r="C135" s="31"/>
-      <c r="D135" s="36"/>
-    </row>
-    <row r="136" spans="3:4">
-      <c r="C136" s="31"/>
-      <c r="D136" s="36"/>
-    </row>
-    <row r="137" spans="3:4">
-      <c r="C137" s="31"/>
-      <c r="D137" s="36"/>
-    </row>
-    <row r="138" spans="3:4">
-      <c r="C138" s="31"/>
-      <c r="D138" s="36"/>
-    </row>
-    <row r="153" spans="2:5">
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="31"/>
-    </row>
-    <row r="154" spans="2:5">
-      <c r="B154" s="37" t="s">
+      <c r="D483" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C154" s="31"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="31"/>
-    </row>
-    <row r="155" spans="2:5">
-      <c r="B155" s="37" t="s">
+      <c r="E483" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="31"/>
-    </row>
-    <row r="156" spans="2:5">
-      <c r="B156" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C156" s="31"/>
-      <c r="D156" s="31"/>
-      <c r="E156" s="31"/>
-    </row>
-    <row r="157" spans="2:5">
-      <c r="B157" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C157" s="31"/>
-      <c r="D157" s="31"/>
-      <c r="E157" s="31"/>
-    </row>
-    <row r="483" spans="2:5" ht="28">
-      <c r="B483" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C483" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D483" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E483" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="484" spans="2:5">
-      <c r="B484" s="31"/>
-      <c r="C484" s="40"/>
-      <c r="D484" s="40"/>
-      <c r="E484" s="40"/>
-    </row>
-    <row r="485" spans="2:5">
-      <c r="B485" s="31"/>
-      <c r="C485" s="40"/>
-      <c r="D485" s="40"/>
-      <c r="E485" s="40"/>
+    </row>
+    <row r="484" spans="2:6">
+      <c r="B484" s="29"/>
+      <c r="C484" s="38"/>
+      <c r="D484" s="38"/>
+      <c r="E484" s="38"/>
+    </row>
+    <row r="485" spans="2:6">
+      <c r="B485" s="29"/>
+      <c r="C485" s="38"/>
+      <c r="D485" s="38"/>
+      <c r="E485" s="38"/>
+    </row>
+    <row r="493" spans="2:6">
+      <c r="C493" s="51"/>
+      <c r="D493" s="52"/>
+      <c r="E493" s="50"/>
+      <c r="F493" s="50"/>
+    </row>
+    <row r="494" spans="2:6">
+      <c r="C494" s="51"/>
+      <c r="D494" s="52"/>
+      <c r="E494" s="50"/>
+      <c r="F494" s="50"/>
+    </row>
+    <row r="495" spans="2:6">
+      <c r="C495" s="51"/>
+      <c r="D495" s="52"/>
+      <c r="E495" s="50"/>
+      <c r="F495" s="50"/>
+    </row>
+    <row r="496" spans="2:6">
+      <c r="C496" s="51"/>
+      <c r="D496" s="52"/>
+      <c r="E496" s="50"/>
+      <c r="F496" s="50"/>
+    </row>
+    <row r="497" spans="3:6">
+      <c r="C497" s="50"/>
+      <c r="D497" s="50"/>
+      <c r="E497" s="50"/>
+      <c r="F497" s="50"/>
+    </row>
+    <row r="498" spans="3:6">
+      <c r="C498" s="50"/>
+      <c r="D498" s="50"/>
+      <c r="E498" s="50"/>
+      <c r="F498" s="50"/>
+    </row>
+    <row r="499" spans="3:6">
+      <c r="C499" s="50"/>
+      <c r="D499" s="50"/>
+      <c r="E499" s="50"/>
+      <c r="F499" s="50"/>
+    </row>
+    <row r="500" spans="3:6">
+      <c r="C500" s="50"/>
+      <c r="D500" s="50"/>
+      <c r="E500" s="50"/>
+      <c r="F500" s="50"/>
+    </row>
+    <row r="501" spans="3:6">
+      <c r="C501" s="50"/>
+      <c r="D501" s="50"/>
+      <c r="E501" s="50"/>
+      <c r="F501" s="50"/>
+    </row>
+    <row r="502" spans="3:6">
+      <c r="C502" s="50"/>
+      <c r="D502" s="50"/>
+      <c r="E502" s="50"/>
+      <c r="F502" s="50"/>
+    </row>
+    <row r="503" spans="3:6">
+      <c r="C503" s="50"/>
+      <c r="D503" s="50"/>
+      <c r="E503" s="50"/>
+      <c r="F503" s="50"/>
+    </row>
+    <row r="504" spans="3:6">
+      <c r="C504" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D504" s="52">
+        <v>0.27529999999999999</v>
+      </c>
+      <c r="E504" s="50"/>
+      <c r="F504" s="50"/>
+    </row>
+    <row r="505" spans="3:6">
+      <c r="C505" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D505" s="52">
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="E505" s="50"/>
+      <c r="F505" s="50"/>
+    </row>
+    <row r="506" spans="3:6">
+      <c r="C506" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D506" s="52">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="E506" s="50"/>
+      <c r="F506" s="50"/>
+    </row>
+    <row r="507" spans="3:6">
+      <c r="C507" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D507" s="52">
+        <v>0.42509999999999998</v>
+      </c>
+      <c r="E507" s="50"/>
+      <c r="F507" s="50"/>
+    </row>
+    <row r="508" spans="3:6">
+      <c r="C508" s="50"/>
+      <c r="D508" s="50"/>
+      <c r="E508" s="50"/>
+      <c r="F508" s="50"/>
+    </row>
+    <row r="509" spans="3:6">
+      <c r="C509" s="50"/>
+      <c r="D509" s="50"/>
+      <c r="E509" s="50"/>
+      <c r="F509" s="50"/>
+    </row>
+    <row r="510" spans="3:6">
+      <c r="C510" s="50"/>
+      <c r="D510" s="50"/>
+      <c r="E510" s="50"/>
+      <c r="F510" s="50"/>
+    </row>
+    <row r="511" spans="3:6">
+      <c r="C511" s="50"/>
+      <c r="D511" s="50"/>
+      <c r="E511" s="50"/>
+      <c r="F511" s="50"/>
+    </row>
+    <row r="512" spans="3:6">
+      <c r="C512" s="50"/>
+      <c r="D512" s="50"/>
+      <c r="E512" s="50"/>
+      <c r="F512" s="50"/>
+    </row>
+    <row r="513" spans="3:6">
+      <c r="C513" s="50"/>
+      <c r="D513" s="50"/>
+      <c r="E513" s="50"/>
+      <c r="F513" s="50"/>
+    </row>
+    <row r="514" spans="3:6">
+      <c r="C514" s="50"/>
+      <c r="D514" s="50"/>
+      <c r="E514" s="50"/>
+      <c r="F514" s="50"/>
+    </row>
+    <row r="515" spans="3:6">
+      <c r="C515" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D515" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E515" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F515" s="50"/>
+    </row>
+    <row r="516" spans="3:6">
+      <c r="C516" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D516" s="53">
+        <v>4</v>
+      </c>
+      <c r="E516" s="54">
+        <v>0.4</v>
+      </c>
+      <c r="F516" s="50"/>
+    </row>
+    <row r="517" spans="3:6">
+      <c r="C517" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D517" s="53">
+        <v>4</v>
+      </c>
+      <c r="E517" s="54">
+        <v>0.4</v>
+      </c>
+      <c r="F517" s="50"/>
+    </row>
+    <row r="518" spans="3:6">
+      <c r="C518" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D518" s="53">
+        <v>2</v>
+      </c>
+      <c r="E518" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="F518" s="50"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="B27:C27"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/phpdocx/template/burning.xlsx
+++ b/phpdocx/template/burning.xlsx
@@ -1024,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C493" sqref="C493:D496"/>
     </sheetView>
   </sheetViews>

--- a/phpdocx/template/burning.xlsx
+++ b/phpdocx/template/burning.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Shareholding Pattern</t>
   </si>
@@ -193,6 +193,24 @@
   </si>
   <si>
     <t>FY 14/15</t>
+  </si>
+  <si>
+    <t>FY14/15</t>
+  </si>
+  <si>
+    <t>FY13/14</t>
+  </si>
+  <si>
+    <t>FY12/13</t>
+  </si>
+  <si>
+    <t>FY11/12</t>
+  </si>
+  <si>
+    <t>FY10/11</t>
+  </si>
+  <si>
+    <t>FY 09/10</t>
   </si>
 </sst>
 </file>
@@ -205,7 +223,7 @@
     <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -263,6 +281,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="10">
@@ -613,11 +643,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -726,9 +758,11 @@
     <xf numFmtId="167" fontId="0" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Comma 4" xfId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1022,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F518"/>
+  <dimension ref="B3:F537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C493" sqref="C493:D496"/>
+    <sheetView tabSelected="1" topLeftCell="A511" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J529" sqref="J529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1694,9 +1728,103 @@
       </c>
       <c r="F518" s="50"/>
     </row>
+    <row r="530" spans="2:5" ht="15" thickBot="1"/>
+    <row r="531" spans="2:5">
+      <c r="B531" s="25"/>
+      <c r="C531" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D531" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E531" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="532" spans="2:5">
+      <c r="B532" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C532" s="29">
+        <v>2</v>
+      </c>
+      <c r="D532" s="29">
+        <v>111.3821138211382</v>
+      </c>
+      <c r="E532" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="533" spans="2:5">
+      <c r="B533" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C533" s="29">
+        <v>3</v>
+      </c>
+      <c r="D533" s="29">
+        <v>116.26016260162602</v>
+      </c>
+      <c r="E533" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534" spans="2:5">
+      <c r="B534" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C534" s="29">
+        <v>4</v>
+      </c>
+      <c r="D534" s="29">
+        <v>122.76422764227641</v>
+      </c>
+      <c r="E534" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="2:5">
+      <c r="B535" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C535" s="29">
+        <v>5</v>
+      </c>
+      <c r="D535" s="29">
+        <v>119.51219512195121</v>
+      </c>
+      <c r="E535" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="2:5" ht="15" thickBot="1">
+      <c r="B536" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C536" s="32">
+        <v>6</v>
+      </c>
+      <c r="D536" s="32">
+        <v>123.57723577235772</v>
+      </c>
+      <c r="E536" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="2:5" ht="15" thickBot="1">
+      <c r="B537" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C537" s="32"/>
+      <c r="D537" s="32"/>
+      <c r="E537" s="33">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
